--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ITI\Internet-Banking-System\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23004" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,9 +23,932 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+  <si>
+    <t>Project Name:</t>
+  </si>
+  <si>
+    <t>Test Designed by:</t>
+  </si>
+  <si>
+    <t>Module Name:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Test Designed date: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Precondition </t>
+  </si>
+  <si>
+    <t>SRS ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>Steps</t>
+  </si>
+  <si>
+    <t>Expected Results</t>
+  </si>
+  <si>
+    <t>Actual Results</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Reviewed By</t>
+  </si>
+  <si>
+    <t>Review comments</t>
+  </si>
+  <si>
+    <t>Internet Banking System</t>
+  </si>
+  <si>
+    <t>Registeration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khadija Mostafa </t>
+  </si>
+  <si>
+    <t>14/5/2019</t>
+  </si>
+  <si>
+    <t>validate that a new user can register successfully .</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">high </t>
+  </si>
+  <si>
+    <t>functional</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R001</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R015</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R002</t>
+  </si>
+  <si>
+    <t>validate the functionality of login hyper link in the 
+registeration form .</t>
+  </si>
+  <si>
+    <t>1- click on login button in the registeration page .</t>
+  </si>
+  <si>
+    <t>1-Open google chrome 
+2- Navigate to URL "      "
+3- click on register  hyperlink in the login page .</t>
+  </si>
+  <si>
+    <t>customer shall be redirected to verification code page successfully .</t>
+  </si>
+  <si>
+    <t>customer shall be redirected tologin page successfully .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R028</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_NF_R005</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R003</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that all fields will be clear if customer click
+ on back button. </t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- press back from browser bar then press next .</t>
+  </si>
+  <si>
+    <t>all fields shall be clear.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R004</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context" You have entered an invalid format of data, 
+Please try again." with ok button and close icon. 
+</t>
+  </si>
+  <si>
+    <t>validate that customer remain in the same page after 
+press on ok button in any  error message displayed .</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+10- click on ok in the pop up message .</t>
+  </si>
+  <si>
+    <t>error message shall be disappeared and cst 
+shall be remain in the registeration page .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93**
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t>validate that Username field shallnot  accept special characters  .</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa933333333333333333333333333333333333333333333333333
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751821</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R005</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R006</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R008</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R007
+&amp; BANK_SYS_SRS_Reg_R024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ BANK_SYS_SRS_Reg_R029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+ BANK_SYS_SRS_Reg_R030</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R007</t>
+  </si>
+  <si>
+    <t>validate that customer remain in the same page after 
+press close icon in any  error message displayed .</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa933333333333333333333333333333333333333333333333333
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751822</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+10- click on close icon  in the pop up message .</t>
+  </si>
+  <si>
+    <t>validate that Username field must contain numbers .</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t>validate that Username field must contain characters  .</t>
+  </si>
+  <si>
+    <t>1-user name : 123456789
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R008</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R009</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R010</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93KhadijaMostafa9
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751821</t>
+  </si>
+  <si>
+    <t>validate that Username field shall accept length 31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+customer shall be redirected to verification code page successfully .
+</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751822</t>
+  </si>
+  <si>
+    <t>validate that Username field shall accept length 32</t>
+  </si>
+  <si>
+    <t>validate that Username field shall not accept length 33.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa933
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R011</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R012</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" You have entered an invalid format of data, 
+Please try again." with ok button and close icon. </t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept  characters only .</t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept numbers only .</t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept special 
+characters only .</t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept  
+characters and numbers only .</t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept  
+characters and special characters only .</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja****
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+</t>
+  </si>
+  <si>
+    <t>validate that Password shallnot accept  
+numbers and special characters only .</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*12
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751829</t>
+  </si>
+  <si>
+    <t>validate that password shallnot  accept length 7.</t>
+  </si>
+  <si>
+    <t>validate that password shall accept length 8.</t>
+  </si>
+  <si>
+    <t>validate that password shall accept length 9.</t>
+  </si>
+  <si>
+    <t>validate that password shall accept length 11.</t>
+  </si>
+  <si>
+    <t>validate that password shall accept length 12.</t>
+  </si>
+  <si>
+    <t>validate that password shall accept length 13.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R009</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R013</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R014</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R015</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R016</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R017</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R018</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R019</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R020</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R021</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R022</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R023</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123*12
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751832</t>
+  </si>
+  <si>
+    <t>validate that the confirmation password field 
+shallnot accept different password from the one 
+written in the password textfield.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123*
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751835</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : dejadeja
+3- confirm password : dejadeja
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751823</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : 12345678
+3- confirm password : 12345678
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751824</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : ****$$$$
+3- confirm password : ****$$$$
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751825</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja1234
+3- confirm password : deja1234
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751826</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : 1234****
+3- confirm password : 1234****
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751828</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123
+3- confirm password : deja*123
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751830</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123*
+3- confirm password : deja*123*
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751831</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123*123
+3- confirm password : deja*123*123
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751833</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja*123*1234
+3- confirm password : deja*123*1234
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751834</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R010</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R024</t>
+  </si>
+  <si>
+    <t>validate that customer national ID Field shall not
+accept 13 digit.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 1234567891234
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751836</t>
+  </si>
+  <si>
+    <t>validate that customer national ID Field shall not
+accept 15 digit.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 123456789123456
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751837</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751838</t>
+  </si>
+  <si>
+    <t>customer shall be redirected to
+ verification code page successfully .</t>
+  </si>
+  <si>
+    <t>validate that customer national ID Field shall 
+accept 14 digit.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R011</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R012</t>
+  </si>
+  <si>
+    <t>validate that customer national ID Field shall not
+accept characters.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : abcabcabcabcab
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751839</t>
+  </si>
+  <si>
+    <t>validate that customer national ID Field shall not
+accept special characters.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R013</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : @#$@#$@#$@#$@#
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751840</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R025</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R026</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R027</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R028</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R029</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall not
+accept special characters.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall not
+accept  characters.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :dejadejadeja </t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :@#$@#$@#$@#$</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R030</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R031</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R021</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall 
+accept length 19.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall 
+accept length 20.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall not
+accept length 21.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R022</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R023</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :2012847518201231234</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :20128475182012312345</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :201284751820123123456</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R032</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R033</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R034</t>
+  </si>
+  <si>
+    <t>validate that Username field shall not accept length 2.</t>
+  </si>
+  <si>
+    <t>validate that Username field shall  accept length 4.</t>
+  </si>
+  <si>
+    <t>validate that Username field shall  accept length 3.</t>
+  </si>
+  <si>
+    <t>1-user name : Kh
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751821</t>
+  </si>
+  <si>
+    <t>1-user name : Kh3
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751822</t>
+  </si>
+  <si>
+    <t>1-user name : Kh93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751823</t>
+  </si>
+  <si>
+    <t>validate that staff ID Field shall not
+accept length 7.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall 
+accept length 6.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall 
+accept length 5.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 1234567</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 123456</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 12345</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall not
+accept characters</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : abcabc</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : @#$@#$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-enter staff ID in the staff id textfield .
+9- press on the button Register.
+</t>
+  </si>
+  <si>
+    <t>validate that admin can register succesfully .</t>
+  </si>
+  <si>
+    <t>admin shall be redirected to
+ verification code page successfully .</t>
+  </si>
+  <si>
+    <t>validate that customer redirected to his accounts
+ page after entering verification code successfully.</t>
+  </si>
+  <si>
+    <t>1-user name : KhadijaMostafa93
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 123457</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+10- enter the verification code.</t>
+  </si>
+  <si>
+    <t>customer shall be redirected to his
+ accounts page successfully.</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R019</t>
+  </si>
+  <si>
+    <t>validate that admin redirected to his accounts
+ page after entering verification code successfully.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-enter staff ID in the staff id textfield .
+9- press on the button Register.
+10- enter the verification code.
+</t>
+  </si>
+  <si>
+    <t>admin shall be redirected to his
+ main page successfully.</t>
+  </si>
+  <si>
+    <t>validate that customer don't redirect to his accounts
+ page after entering invalid verification code .</t>
+  </si>
+  <si>
+    <t>validate that admin don't redirect to his accounts
+ page after entering invalid verification code .</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R035</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R036</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R037</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R038</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R039</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R040</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R041</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R042</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R043</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R044</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R045</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R046</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R047</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -33,16 +956,89 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -50,12 +1046,135 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thick">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -336,12 +1455,1485 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D54" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9:H55"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.5703125" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1"/>
+    <col min="3" max="3" width="48" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" customWidth="1"/>
+    <col min="11" max="11" width="14.5703125" customWidth="1"/>
+    <col min="12" max="12" width="24" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="B4" s="5"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="7"/>
+    </row>
+    <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="B5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="11"/>
+    </row>
+    <row r="6" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+    </row>
+    <row r="7" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" s="18" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="J8" s="18" t="s">
+        <v>14</v>
+      </c>
+      <c r="K8" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="L8" s="18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="22" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A13" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H14" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+    </row>
+    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+    </row>
+    <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="H20" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H21" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>57</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="H22" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>95</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="D23" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E23" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H23" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="D24" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="E24" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F24" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>97</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H25" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="E26" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F26" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H26" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="D27" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="E27" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F27" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H27" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" s="21" t="s">
+        <v>100</v>
+      </c>
+      <c r="C28" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="D28" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="E28" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F28" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H28" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C29" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="E29" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H29" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="E30" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F30" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H30" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="E31" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F31" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="21" t="s">
+        <v>117</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E32" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F32" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="E33" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F33" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="H33" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="21" t="s">
+        <v>133</v>
+      </c>
+      <c r="C34" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E34" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H34" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D35" s="20" t="s">
+        <v>106</v>
+      </c>
+      <c r="E35" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F35" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H35" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>125</v>
+      </c>
+      <c r="B36" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>118</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E36" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H36" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="C37" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="E37" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H37" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>125</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>141</v>
+      </c>
+      <c r="C38" s="20" t="s">
+        <v>124</v>
+      </c>
+      <c r="D38" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="E38" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>126</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>127</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="E39" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F39" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>131</v>
+      </c>
+      <c r="E40" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F40" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H40" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="E41" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F41" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="C42" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="E42" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F42" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H42" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>149</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F43" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H43" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>143</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F44" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="H44" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>143</v>
+      </c>
+      <c r="B45" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="F45" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H45" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>147</v>
+      </c>
+      <c r="B46" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>164</v>
+      </c>
+      <c r="E46" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F46" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H46" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F47" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H47" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B48" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="C48" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E48" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F48" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H48" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B49" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C49" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E49" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F49" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H49" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>147</v>
+      </c>
+      <c r="B50" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="C50" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="D50" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="E50" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F50" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H50" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>27</v>
+      </c>
+      <c r="B51" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C51" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="H51" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>177</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="C52" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E52" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F52" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="H52" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="21" t="s">
+        <v>193</v>
+      </c>
+      <c r="C53" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="E53" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="F53" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>177</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="D54" s="20" t="s">
+        <v>165</v>
+      </c>
+      <c r="E54" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H54" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="C55" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="E55" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="F55" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="H55" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="22" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B5:K5"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1128,12 +1128,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1174,6 +1168,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D54" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9:H55"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="A8" activeCellId="7" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1512,101 +1512,101 @@
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="9"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="11"/>
-    </row>
-    <row r="6" spans="1:12" s="16" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="12" t="s">
+      <c r="B5" s="24"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="9"/>
+    </row>
+    <row r="6" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="15"/>
-    </row>
-    <row r="7" spans="1:12" s="17" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" s="18" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="19" t="s">
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="13"/>
+    </row>
+    <row r="7" spans="1:12" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:12" s="16" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="D8" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="18" t="s">
+      <c r="E8" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="18" t="s">
+      <c r="G8" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="18" t="s">
+      <c r="H8" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="18" t="s">
+      <c r="I8" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="18" t="s">
+      <c r="J8" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="18" t="s">
+      <c r="K8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="18" t="s">
+      <c r="L8" s="16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="22" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="22" t="s">
+    <row r="9" spans="1:12" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D9" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="23" t="s">
+      <c r="E9" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="23" t="s">
+      <c r="F9" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="22" t="s">
+      <c r="H9" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1614,25 +1614,25 @@
       <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
       <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="23" t="s">
+      <c r="F10" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="22" t="s">
+      <c r="H10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1640,567 +1640,567 @@
       <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="20" t="s">
+      <c r="D11" s="18" t="s">
         <v>46</v>
       </c>
-      <c r="E11" s="20" t="s">
+      <c r="E11" s="18" t="s">
         <v>38</v>
       </c>
       <c r="F11" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="22" t="s">
+      <c r="H11" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F12" s="20" t="s">
+      <c r="F12" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H12" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="22" t="s">
+      <c r="H12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
+      <c r="A13" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="21" t="s">
+      <c r="B13" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="D13" s="20" t="s">
+      <c r="D13" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="E13" s="20" t="s">
+      <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F13" s="20" t="s">
+      <c r="F13" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="22" t="s">
+      <c r="H13" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E14" s="20" t="s">
+      <c r="E14" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="20" t="s">
+      <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="22" t="s">
+      <c r="H14" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F15" s="20" t="s">
+      <c r="F15" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="22" t="s">
+      <c r="H15" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>155</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="E16" s="20" t="s">
+      <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F16" s="20" t="s">
+      <c r="F16" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
+      <c r="H16" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>157</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="18" t="s">
         <v>159</v>
       </c>
-      <c r="E17" s="20" t="s">
+      <c r="E17" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
+      <c r="H17" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+      <c r="A18" s="18" t="s">
         <v>148</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="20" t="s">
+      <c r="C18" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="D18" s="20" t="s">
+      <c r="D18" s="18" t="s">
         <v>160</v>
       </c>
-      <c r="E18" s="20" t="s">
+      <c r="E18" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F18" s="20" t="s">
+      <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
+      <c r="H18" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
     </row>
     <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+      <c r="A19" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="C19" s="20" t="s">
+      <c r="C19" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="20" t="s">
+      <c r="D19" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="E19" s="20" t="s">
+      <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="20" t="s">
+      <c r="F19" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H19" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="22" t="s">
+      <c r="H19" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+      <c r="A20" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="20" t="s">
+      <c r="C20" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="20" t="s">
+      <c r="D20" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="20" t="s">
+      <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F20" s="20" t="s">
+      <c r="F20" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="H20" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="22" t="s">
+      <c r="H20" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+      <c r="A21" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="C21" s="20" t="s">
+      <c r="C21" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="20" t="s">
+      <c r="D21" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="E21" s="20" t="s">
+      <c r="E21" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="20" t="s">
+      <c r="F21" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H21" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="22" t="s">
+      <c r="H21" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+      <c r="A22" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="20" t="s">
+      <c r="C22" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D22" s="20" t="s">
+      <c r="D22" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="E22" s="20" t="s">
+      <c r="E22" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="20" t="s">
+      <c r="F22" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="H22" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="22" t="s">
+      <c r="H22" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="20" t="s">
+      <c r="C23" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D23" s="20" t="s">
+      <c r="D23" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="E23" s="20" t="s">
+      <c r="E23" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F23" s="20" t="s">
+      <c r="F23" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H23" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="22" t="s">
+      <c r="H23" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="20" t="s">
+      <c r="A24" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B24" s="21" t="s">
+      <c r="B24" s="19" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="20" t="s">
+      <c r="C24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="D24" s="20" t="s">
+      <c r="D24" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="E24" s="20" t="s">
+      <c r="E24" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F24" s="20" t="s">
+      <c r="F24" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="22" t="s">
+      <c r="H24" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="21" t="s">
+      <c r="B25" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="E25" s="20" t="s">
+      <c r="E25" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F25" s="20" t="s">
+      <c r="F25" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H25" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="22" t="s">
+      <c r="H25" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="21" t="s">
+      <c r="B26" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="D26" s="20" t="s">
+      <c r="D26" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E26" s="20" t="s">
+      <c r="E26" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F26" s="20" t="s">
+      <c r="F26" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H26" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="22" t="s">
+      <c r="H26" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="A27" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="19" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="20" t="s">
+      <c r="C27" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="E27" s="20" t="s">
+      <c r="E27" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F27" s="20" t="s">
+      <c r="F27" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="22" t="s">
+      <c r="H27" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="21" t="s">
+      <c r="B28" s="19" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C28" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E28" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F28" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H28" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="22" t="s">
+      <c r="H28" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="21" t="s">
+      <c r="B29" s="19" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="20" t="s">
+      <c r="C29" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D29" s="20" t="s">
+      <c r="D29" s="18" t="s">
         <v>85</v>
       </c>
-      <c r="E29" s="20" t="s">
+      <c r="E29" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F29" s="20" t="s">
+      <c r="F29" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H29" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="22" t="s">
+      <c r="H29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="21" t="s">
+      <c r="B30" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="C30" s="20" t="s">
+      <c r="C30" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D30" s="20" t="s">
+      <c r="D30" s="18" t="s">
         <v>112</v>
       </c>
-      <c r="E30" s="20" t="s">
+      <c r="E30" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F30" s="20" t="s">
+      <c r="F30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="22" t="s">
+      <c r="H30" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2208,28 +2208,28 @@
       <c r="A31" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="21" t="s">
+      <c r="B31" s="19" t="s">
         <v>103</v>
       </c>
-      <c r="C31" s="20" t="s">
+      <c r="C31" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="D31" s="20" t="s">
+      <c r="D31" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="E31" s="20" t="s">
+      <c r="E31" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F31" s="20" t="s">
+      <c r="F31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="22" t="s">
+      <c r="H31" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2237,28 +2237,28 @@
       <c r="A32" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="21" t="s">
+      <c r="B32" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="C32" s="20" t="s">
+      <c r="C32" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="D32" s="20" t="s">
+      <c r="D32" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="E32" s="20" t="s">
+      <c r="E32" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F32" s="20" t="s">
+      <c r="F32" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H32" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="22" t="s">
+      <c r="H32" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2266,28 +2266,28 @@
       <c r="A33" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="21" t="s">
+      <c r="B33" s="19" t="s">
         <v>132</v>
       </c>
-      <c r="C33" s="20" t="s">
+      <c r="C33" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="D33" s="20" t="s">
+      <c r="D33" s="18" t="s">
         <v>114</v>
       </c>
-      <c r="E33" s="20" t="s">
+      <c r="E33" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F33" s="20" t="s">
+      <c r="F33" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="22" t="s">
+      <c r="H33" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2295,28 +2295,28 @@
       <c r="A34" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="21" t="s">
+      <c r="B34" s="19" t="s">
         <v>133</v>
       </c>
-      <c r="C34" s="20" t="s">
+      <c r="C34" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="D34" s="20" t="s">
+      <c r="D34" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="E34" s="20" t="s">
+      <c r="E34" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="20" t="s">
+      <c r="F34" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H34" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="22" t="s">
+      <c r="H34" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2324,28 +2324,28 @@
       <c r="A35" t="s">
         <v>116</v>
       </c>
-      <c r="B35" s="21" t="s">
+      <c r="B35" s="19" t="s">
         <v>134</v>
       </c>
-      <c r="C35" s="20" t="s">
+      <c r="C35" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="20" t="s">
+      <c r="D35" s="18" t="s">
         <v>106</v>
       </c>
-      <c r="E35" s="20" t="s">
+      <c r="E35" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F35" s="20" t="s">
+      <c r="F35" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H35" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="22" t="s">
+      <c r="H35" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2353,28 +2353,28 @@
       <c r="A36" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="21" t="s">
+      <c r="B36" s="19" t="s">
         <v>135</v>
       </c>
-      <c r="C36" s="20" t="s">
+      <c r="C36" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D36" s="20" t="s">
+      <c r="D36" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="E36" s="20" t="s">
+      <c r="E36" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F36" s="20" t="s">
+      <c r="F36" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H36" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="22" t="s">
+      <c r="H36" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2382,28 +2382,28 @@
       <c r="A37" t="s">
         <v>125</v>
       </c>
-      <c r="B37" s="21" t="s">
+      <c r="B37" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="C37" s="20" t="s">
+      <c r="C37" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="20" t="s">
+      <c r="D37" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="E37" s="20" t="s">
+      <c r="E37" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F37" s="20" t="s">
+      <c r="F37" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H37" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="22" t="s">
+      <c r="H37" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2411,28 +2411,28 @@
       <c r="A38" t="s">
         <v>125</v>
       </c>
-      <c r="B38" s="21" t="s">
+      <c r="B38" s="19" t="s">
         <v>141</v>
       </c>
-      <c r="C38" s="20" t="s">
+      <c r="C38" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="D38" s="20" t="s">
+      <c r="D38" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="E38" s="20" t="s">
+      <c r="E38" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F38" s="20" t="s">
+      <c r="F38" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H38" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="22" t="s">
+      <c r="H38" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2440,28 +2440,28 @@
       <c r="A39" t="s">
         <v>126</v>
       </c>
-      <c r="B39" s="21" t="s">
+      <c r="B39" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="20" t="s">
+      <c r="C39" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="20" t="s">
+      <c r="D39" s="18" t="s">
         <v>128</v>
       </c>
-      <c r="E39" s="20" t="s">
+      <c r="E39" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F39" s="20" t="s">
+      <c r="F39" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H39" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="22" t="s">
+      <c r="H39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2469,28 +2469,28 @@
       <c r="A40" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="21" t="s">
+      <c r="B40" s="19" t="s">
         <v>152</v>
       </c>
-      <c r="C40" s="20" t="s">
+      <c r="C40" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="18" t="s">
         <v>131</v>
       </c>
-      <c r="E40" s="20" t="s">
+      <c r="E40" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F40" s="20" t="s">
+      <c r="F40" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H40" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="22" t="s">
+      <c r="H40" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2498,57 +2498,57 @@
       <c r="A41" t="s">
         <v>130</v>
       </c>
-      <c r="B41" s="21" t="s">
+      <c r="B41" s="19" t="s">
         <v>153</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="18" t="s">
         <v>139</v>
       </c>
-      <c r="E41" s="20" t="s">
+      <c r="E41" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F41" s="20" t="s">
+      <c r="F41" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="22" t="s">
+      <c r="H41" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="20" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="25" t="s">
+      <c r="A42" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="B42" s="21" t="s">
+      <c r="B42" s="19" t="s">
         <v>154</v>
       </c>
-      <c r="C42" s="20" t="s">
+      <c r="C42" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D42" s="20" t="s">
+      <c r="D42" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="E42" s="20" t="s">
+      <c r="E42" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F42" s="20" t="s">
+      <c r="F42" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H42" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="22" t="s">
+      <c r="H42" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2556,28 +2556,28 @@
       <c r="A43" t="s">
         <v>143</v>
       </c>
-      <c r="B43" s="21" t="s">
+      <c r="B43" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="18" t="s">
         <v>144</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F43" s="20" t="s">
+      <c r="F43" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H43" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="22" t="s">
+      <c r="H43" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2585,28 +2585,28 @@
       <c r="A44" t="s">
         <v>143</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="19" t="s">
         <v>184</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="18" t="s">
         <v>150</v>
       </c>
-      <c r="E44" s="20" t="s">
+      <c r="E44" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F44" s="20" t="s">
+      <c r="F44" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="H44" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="22" t="s">
+      <c r="H44" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2614,28 +2614,28 @@
       <c r="A45" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="21" t="s">
+      <c r="B45" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="18" t="s">
         <v>146</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="F45" s="20" t="s">
+      <c r="F45" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H45" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="22" t="s">
+      <c r="H45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2643,28 +2643,28 @@
       <c r="A46" t="s">
         <v>147</v>
       </c>
-      <c r="B46" s="21" t="s">
+      <c r="B46" s="19" t="s">
         <v>186</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="18" t="s">
         <v>161</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="18" t="s">
         <v>164</v>
       </c>
-      <c r="E46" s="20" t="s">
+      <c r="E46" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F46" s="20" t="s">
+      <c r="F46" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H46" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="22" t="s">
+      <c r="H46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2672,28 +2672,28 @@
       <c r="A47" t="s">
         <v>147</v>
       </c>
-      <c r="B47" s="21" t="s">
+      <c r="B47" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="18" t="s">
         <v>162</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F47" s="20" t="s">
+      <c r="F47" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H47" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="22" t="s">
+      <c r="H47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2701,28 +2701,28 @@
       <c r="A48" t="s">
         <v>147</v>
       </c>
-      <c r="B48" s="21" t="s">
+      <c r="B48" s="19" t="s">
         <v>188</v>
       </c>
-      <c r="C48" s="20" t="s">
+      <c r="C48" s="18" t="s">
         <v>163</v>
       </c>
-      <c r="D48" s="20" t="s">
+      <c r="D48" s="18" t="s">
         <v>166</v>
       </c>
-      <c r="E48" s="20" t="s">
+      <c r="E48" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F48" s="20" t="s">
+      <c r="F48" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H48" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="22" t="s">
+      <c r="H48" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2730,28 +2730,28 @@
       <c r="A49" t="s">
         <v>147</v>
       </c>
-      <c r="B49" s="21" t="s">
+      <c r="B49" s="19" t="s">
         <v>189</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="20" t="s">
+      <c r="F49" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H49" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="22" t="s">
+      <c r="H49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2759,28 +2759,28 @@
       <c r="A50" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="21" t="s">
+      <c r="B50" s="19" t="s">
         <v>190</v>
       </c>
-      <c r="C50" s="20" t="s">
+      <c r="C50" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="20" t="s">
+      <c r="D50" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="E50" s="20" t="s">
+      <c r="E50" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F50" s="20" t="s">
+      <c r="F50" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H50" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="22" t="s">
+      <c r="H50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2788,28 +2788,28 @@
       <c r="A51" t="s">
         <v>27</v>
       </c>
-      <c r="B51" s="21" t="s">
+      <c r="B51" s="19" t="s">
         <v>191</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="18" t="s">
         <v>171</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F51" s="20" t="s">
+      <c r="F51" s="18" t="s">
         <v>172</v>
       </c>
-      <c r="H51" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="22" t="s">
+      <c r="H51" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2817,28 +2817,28 @@
       <c r="A52" t="s">
         <v>177</v>
       </c>
-      <c r="B52" s="21" t="s">
+      <c r="B52" s="19" t="s">
         <v>192</v>
       </c>
-      <c r="C52" s="20" t="s">
+      <c r="C52" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="20" t="s">
+      <c r="D52" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E52" s="20" t="s">
+      <c r="E52" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F52" s="20" t="s">
+      <c r="F52" s="18" t="s">
         <v>176</v>
       </c>
-      <c r="H52" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="22" t="s">
+      <c r="H52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2846,28 +2846,28 @@
       <c r="A53" t="s">
         <v>177</v>
       </c>
-      <c r="B53" s="21" t="s">
+      <c r="B53" s="19" t="s">
         <v>193</v>
       </c>
-      <c r="C53" s="20" t="s">
+      <c r="C53" s="18" t="s">
         <v>181</v>
       </c>
-      <c r="D53" s="20" t="s">
+      <c r="D53" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="E53" s="20" t="s">
+      <c r="E53" s="18" t="s">
         <v>175</v>
       </c>
-      <c r="F53" s="20" t="s">
+      <c r="F53" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H53" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="22" t="s">
+      <c r="H53" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2875,28 +2875,28 @@
       <c r="A54" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="21" t="s">
+      <c r="B54" s="19" t="s">
         <v>194</v>
       </c>
-      <c r="C54" s="20" t="s">
+      <c r="C54" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="20" t="s">
+      <c r="D54" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="E54" s="20" t="s">
+      <c r="E54" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F54" s="20" t="s">
+      <c r="F54" s="18" t="s">
         <v>180</v>
       </c>
-      <c r="H54" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="22" t="s">
+      <c r="H54" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="20" t="s">
         <v>25</v>
       </c>
     </row>
@@ -2904,28 +2904,28 @@
       <c r="A55" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="21" t="s">
+      <c r="B55" s="19" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="20" t="s">
+      <c r="C55" s="18" t="s">
         <v>182</v>
       </c>
-      <c r="D55" s="20" t="s">
+      <c r="D55" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="E55" s="20" t="s">
+      <c r="E55" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="F55" s="20" t="s">
+      <c r="F55" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="H55" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="22" t="s">
+      <c r="H55" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="20" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
   <si>
     <t>Project Name:</t>
   </si>
@@ -942,6 +942,104 @@
   </si>
   <si>
     <t>BANK_SYS_TC_Reg_R047</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R048</t>
+  </si>
+  <si>
+    <t>Validate that all fields are required expect staff id 
+in case of customer registeration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- leave username textfield empty .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name : khadijaMostafa 
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+10- enter the verification code.
+</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R050</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R051</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R032</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R031</t>
+  </si>
+  <si>
+    <t>Validate that all fields are required 
+in case of admin registeration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name :
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+</t>
+  </si>
+  <si>
+    <t>1-user name : khadijaMostafa 
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 123457</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-eneter staff ID in the textfield staff id .
+9- press on the button Register.
+10- enter the verification code.</t>
+  </si>
+  <si>
+    <t>validate that no availability to register with 
+an exist customer data (customer register twice ).</t>
+  </si>
+  <si>
+    <t>validate that no availability to register with 
+an exist admin data (admin register twice).</t>
   </si>
 </sst>
 </file>
@@ -1455,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="7" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2929,6 +3027,122 @@
         <v>25</v>
       </c>
     </row>
+    <row r="56" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B5:K5"/>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23010" windowHeight="8460"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -769,10 +769,6 @@
   </si>
   <si>
     <t>validate that customer phone Field shall 
-accept length 6.</t>
-  </si>
-  <si>
-    <t>validate that customer phone Field shall 
 accept length 5.</t>
   </si>
   <si>
@@ -943,11 +939,15 @@
   <si>
     <t>BANK_SYS_TC_Reg_R047</t>
   </si>
+  <si>
+    <t>validate that staff ID Field shall 
+accept length 6.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1457,8 +1457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="A8" activeCellId="7" sqref="A1:XFD1 A2:XFD2 A3:XFD3 A4:XFD4 A5:XFD5 A6:XFD6 A7:XFD7 A8:XFD8"/>
+    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2557,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>144</v>
@@ -2586,7 +2586,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>145</v>
@@ -2615,7 +2615,7 @@
         <v>143</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>146</v>
@@ -2644,16 +2644,16 @@
         <v>147</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>161</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>76</v>
@@ -2673,19 +2673,19 @@
         <v>147</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>23</v>
@@ -2702,19 +2702,19 @@
         <v>147</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>23</v>
@@ -2731,16 +2731,16 @@
         <v>147</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="18" t="s">
-        <v>168</v>
-      </c>
       <c r="E49" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>76</v>
@@ -2760,16 +2760,16 @@
         <v>147</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D50" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="E50" s="18" t="s">
         <v>169</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>170</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>76</v>
@@ -2789,19 +2789,19 @@
         <v>27</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="F51" s="18" t="s">
         <v>171</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>172</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>23</v>
@@ -2815,22 +2815,22 @@
     </row>
     <row r="52" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="F52" s="18" t="s">
         <v>175</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>176</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>23</v>
@@ -2844,19 +2844,19 @@
     </row>
     <row r="53" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>76</v>
@@ -2873,22 +2873,22 @@
     </row>
     <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
+        <v>176</v>
+      </c>
+      <c r="B54" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C54" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B54" s="19" t="s">
-        <v>194</v>
-      </c>
-      <c r="C54" s="18" t="s">
+      <c r="D54" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E54" s="18" t="s">
         <v>178</v>
       </c>
-      <c r="D54" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E54" s="18" t="s">
+      <c r="F54" s="18" t="s">
         <v>179</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>180</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>23</v>
@@ -2902,19 +2902,19 @@
     </row>
     <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>76</v>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
   <si>
     <t>Project Name:</t>
   </si>
@@ -766,6 +766,10 @@
   <si>
     <t>validate that staff ID Field shall not
 accept length 7.</t>
+  </si>
+  <si>
+    <t>validate that customer phone Field shall 
+accept length 6.</t>
   </si>
   <si>
     <t>validate that customer phone Field shall 
@@ -940,14 +944,108 @@
     <t>BANK_SYS_TC_Reg_R047</t>
   </si>
   <si>
-    <t>validate that staff ID Field shall 
-accept length 6.</t>
+    <t>BANK_SYS_TC_Reg_R048</t>
+  </si>
+  <si>
+    <t>Validate that all fields are required expect staff id 
+in case of customer registeration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- leave username textfield empty .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7- leave staff id not selected .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R049</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name : khadijaMostafa 
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-leave staff ID textfield empty.
+9- press on the button Register.
+10- enter the verification code.
+</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R050</t>
+  </si>
+  <si>
+    <t>BANK_SYS_TC_Reg_R051</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R032</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R031</t>
+  </si>
+  <si>
+    <t>Validate that all fields are required 
+in case of admin registeration.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1-user name :
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+</t>
+  </si>
+  <si>
+    <t>1-user name : khadijaMostafa 
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa@gmail.com
+6- phone :01284751820
+7- Staff id : 123457</t>
+  </si>
+  <si>
+    <t>1- enter username in the textfield username .
+2- enter password in the textfield password .
+3- enter confirm password in the textfield confirm password .
+4- enter national ID in the textfield national ID .
+5- enter email in the textfield email .
+6- enter phone in the textfield phone .
+7-select staff id  .
+8-eneter staff ID in the textfield staff id .
+9- press on the button Register.
+10- enter the verification code.</t>
+  </si>
+  <si>
+    <t>validate that no availability to register with 
+an exist customer data (customer register twice ).</t>
+  </si>
+  <si>
+    <t>validate that no availability to register with 
+an exist admin data (admin register twice).</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1455,10 +1553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L55"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2557,7 +2655,7 @@
         <v>143</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C43" s="18" t="s">
         <v>144</v>
@@ -2586,7 +2684,7 @@
         <v>143</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C44" s="18" t="s">
         <v>145</v>
@@ -2615,7 +2713,7 @@
         <v>143</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C45" s="18" t="s">
         <v>146</v>
@@ -2644,16 +2742,16 @@
         <v>147</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C46" s="18" t="s">
         <v>161</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F46" s="18" t="s">
         <v>76</v>
@@ -2673,19 +2771,19 @@
         <v>147</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>23</v>
@@ -2702,19 +2800,19 @@
         <v>147</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>23</v>
@@ -2731,16 +2829,16 @@
         <v>147</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F49" s="18" t="s">
         <v>76</v>
@@ -2760,16 +2858,16 @@
         <v>147</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F50" s="18" t="s">
         <v>76</v>
@@ -2789,19 +2887,19 @@
         <v>27</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C51" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E51" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="D51" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>169</v>
-      </c>
       <c r="F51" s="18" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>23</v>
@@ -2815,22 +2913,22 @@
     </row>
     <row r="52" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B52" s="19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D52" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F52" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>23</v>
@@ -2844,19 +2942,19 @@
     </row>
     <row r="53" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B53" s="19" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D53" s="18" t="s">
         <v>45</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="F53" s="18" t="s">
         <v>76</v>
@@ -2873,22 +2971,22 @@
     </row>
     <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H54" s="20" t="s">
         <v>23</v>
@@ -2902,19 +3000,19 @@
     </row>
     <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F55" s="18" t="s">
         <v>76</v>
@@ -2926,6 +3024,122 @@
         <v>24</v>
       </c>
       <c r="J55" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>204</v>
+      </c>
+      <c r="B56" t="s">
+        <v>196</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>205</v>
+      </c>
+      <c r="B57" t="s">
+        <v>199</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E57" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="F57" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H57" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="D58" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="E58" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F58" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" t="s">
+        <v>23</v>
+      </c>
+      <c r="I58" t="s">
+        <v>24</v>
+      </c>
+      <c r="J58" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="B59" t="s">
+        <v>203</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D59" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="E59" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="F59" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="H59" t="s">
+        <v>23</v>
+      </c>
+      <c r="I59" t="s">
+        <v>24</v>
+      </c>
+      <c r="J59" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\coding\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\for srs and siq and registeration update\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="219">
   <si>
     <t>Project Name:</t>
   </si>
@@ -167,32 +167,6 @@
     <t>BANK_SYS_TC_Reg_R004</t>
   </si>
   <si>
-    <t xml:space="preserve">
-error messgae in the form of pop up shall be displayed with context" You have entered an invalid format of data, 
-Please try again." with ok button and close icon. 
-</t>
-  </si>
-  <si>
-    <t>validate that customer remain in the same page after 
-press on ok button in any  error message displayed .</t>
-  </si>
-  <si>
-    <t>1- enter username in the textfield username .
-2- enter password in the textfield password .
-3- enter confirm password in the textfield confirm password .
-4- enter national ID in the textfield national ID .
-5- enter email in the textfield email .
-6- enter phone in the textfield phone .
-7- leave staff id not selected .
-8-leave staff ID textfield empty.
-9- press on the button Register.
-10- click on ok in the pop up message .</t>
-  </si>
-  <si>
-    <t>error message shall be disappeared and cst 
-shall be remain in the registeration page .</t>
-  </si>
-  <si>
     <t xml:space="preserve">1-user name : KhadijaMostafa93
 2- passsword : deja&amp;123&amp;
 3- confirm password : deja&amp;123&amp;
@@ -221,14 +195,6 @@
     <t>validate that Username field shallnot  accept special characters  .</t>
   </si>
   <si>
-    <t>1-user name : KhadijaMostafa933333333333333333333333333333333333333333333333333
-2- passsword : deja&amp;123&amp;
-3- confirm password : deja&amp;123&amp;
-4- national ID : 12345678912345
-5- email : khadija.mostafa@gmail.com
-6- phone :01284751821</t>
-  </si>
-  <si>
     <t>BANK_SYS_TC_Reg_R005</t>
   </si>
   <si>
@@ -242,39 +208,7 @@
 &amp; BANK_SYS_SRS_Reg_R024</t>
   </si>
   <si>
-    <t xml:space="preserve">
- BANK_SYS_SRS_Reg_R029</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
- BANK_SYS_SRS_Reg_R030</t>
-  </si>
-  <si>
     <t>BANK_SYS_TC_Reg_R007</t>
-  </si>
-  <si>
-    <t>validate that customer remain in the same page after 
-press close icon in any  error message displayed .</t>
-  </si>
-  <si>
-    <t>1-user name : KhadijaMostafa933333333333333333333333333333333333333333333333333
-2- passsword : deja&amp;123&amp;
-3- confirm password : deja&amp;123&amp;
-4- national ID : 12345678912345
-5- email : khadija.mostafa@gmail.com
-6- phone :01284751822</t>
-  </si>
-  <si>
-    <t>1- enter username in the textfield username .
-2- enter password in the textfield password .
-3- enter confirm password in the textfield confirm password .
-4- enter national ID in the textfield national ID .
-5- enter email in the textfield email .
-6- enter phone in the textfield phone .
-7- leave staff id not selected .
-8-leave staff ID textfield empty.
-9- press on the button Register.
-10- click on close icon  in the pop up message .</t>
   </si>
   <si>
     <t>validate that Username field must contain numbers .</t>
@@ -769,10 +703,6 @@
   </si>
   <si>
     <t>validate that customer phone Field shall 
-accept length 6.</t>
-  </si>
-  <si>
-    <t>validate that customer phone Field shall 
 accept length 5.</t>
   </si>
   <si>
@@ -801,10 +731,6 @@
 5- email : khadija.mostafa@gmail.com
 6- phone :01284751820
 7- Staff id : 12345</t>
-  </si>
-  <si>
-    <t>validate that customer phone Field shall not
-accept characters</t>
   </si>
   <si>
     <t>1-user name : KhadijaMostafa93
@@ -988,12 +914,6 @@
 </t>
   </si>
   <si>
-    <t>BANK_SYS_TC_Reg_R050</t>
-  </si>
-  <si>
-    <t>BANK_SYS_TC_Reg_R051</t>
-  </si>
-  <si>
     <t>BANK_SYS_SRS_Reg_R032</t>
   </si>
   <si>
@@ -1040,6 +960,89 @@
   <si>
     <t>validate that no availability to register with 
 an exist admin data (admin register twice).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"  invalid format of data." beyound the username field in red color. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context" length must be between 3:32" beyound the username field in red color. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"  invalid format of data."  beyound the username field in red color. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"  invalid format of data."  beyound the password field in red color. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"length must be between 8:12."  beyound the password field in red color. 
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"length must be between 8:12."  beyound the password field in red color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"invalid format of data."  beyound the password field in red color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"length must be 14."  beyound the national id  field in red color.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"invalid data format."  beyound the national id  field in red color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+error messgae in the form of pop up shall be displayed with context"invalid data format."  beyound the phone  field in red color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context "max length must be 20 "  beyound the phone  field in red color. </t>
+  </si>
+  <si>
+    <t>validate that customer staff id Field shall 
+accept length 6.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" max length must be 6 "  beyound the staff id   field in red color. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" invalid format of data. "  beyound the staff id   field in red color. </t>
+  </si>
+  <si>
+    <t>validate that  admin staff id Field shall not
+accept characters</t>
+  </si>
+  <si>
+    <t>validate that admin staff id  Field shall not
+accept characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" invalid format of data "  beyound the verification code   field in red color. </t>
+  </si>
+  <si>
+    <t>error messgae in the form of pop up shall be displayed with context" invalid format of data." beyound the verification code field in red color.</t>
+  </si>
+  <si>
+    <t>error messgae in the form of pop up shall be displayed with context"this field is mandatory." beyound the username field 
+in red color.</t>
+  </si>
+  <si>
+    <t>error messgae in the form of pop up shall be displayed with context"this field is mandatory." beyound the staff id  field 
+in red color.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context"  invalid format of data." with ok button and close icon. </t>
   </si>
 </sst>
 </file>
@@ -1553,10 +1556,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L59"/>
+  <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="C59" sqref="C59"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +1693,7 @@
         <v>21</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="E9" s="21" t="s">
         <v>22</v>
@@ -1745,7 +1748,7 @@
         <v>37</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E11" s="18" t="s">
         <v>38</v>
@@ -1765,22 +1768,22 @@
     </row>
     <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A12" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>40</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>41</v>
+        <v>198</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>23</v>
@@ -1794,22 +1797,22 @@
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B13" s="19" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>23</v>
@@ -1823,16 +1826,16 @@
     </row>
     <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B14" s="19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>22</v>
@@ -1852,22 +1855,22 @@
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B15" s="19" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>23</v>
@@ -1881,22 +1884,22 @@
     </row>
     <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B16" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D16" s="18" t="s">
         <v>148</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>158</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>41</v>
+        <v>199</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>23</v>
@@ -1906,16 +1909,16 @@
     </row>
     <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>22</v>
@@ -1931,16 +1934,16 @@
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>22</v>
@@ -1956,22 +1959,22 @@
     </row>
     <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A19" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="18" t="s">
         <v>53</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>63</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>23</v>
@@ -1985,22 +1988,22 @@
     </row>
     <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A20" s="18" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>41</v>
+        <v>200</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>23</v>
@@ -2014,22 +2017,22 @@
     </row>
     <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="18" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>49</v>
+        <v>97</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>23</v>
@@ -2043,22 +2046,22 @@
     </row>
     <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="18" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>59</v>
+        <v>73</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>44</v>
+        <v>201</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>23</v>
@@ -2071,23 +2074,23 @@
       </c>
     </row>
     <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
-        <v>52</v>
+      <c r="A23" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>23</v>
@@ -2100,23 +2103,23 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="18" t="s">
-        <v>52</v>
+      <c r="A24" s="22" t="s">
+        <v>47</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>23</v>
@@ -2130,22 +2133,22 @@
     </row>
     <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A25" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F25" s="18" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>23</v>
@@ -2159,22 +2162,22 @@
     </row>
     <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A26" s="22" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>76</v>
+        <v>201</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>23</v>
@@ -2188,22 +2191,22 @@
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>76</v>
+        <v>202</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>23</v>
@@ -2217,22 +2220,22 @@
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F28" s="18" t="s">
-        <v>76</v>
+        <v>32</v>
       </c>
       <c r="H28" s="20" t="s">
         <v>23</v>
@@ -2245,49 +2248,49 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" s="22" t="s">
+      <c r="A29" t="s">
+        <v>82</v>
+      </c>
+      <c r="B29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E29" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F29" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="H29" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="19" t="s">
-        <v>101</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>86</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>85</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F29" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" s="22" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>102</v>
-      </c>
       <c r="C30" s="18" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>32</v>
@@ -2304,19 +2307,19 @@
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>32</v>
@@ -2333,22 +2336,22 @@
     </row>
     <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>32</v>
+        <v>203</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>23</v>
@@ -2362,22 +2365,22 @@
     </row>
     <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>32</v>
+        <v>204</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>23</v>
@@ -2391,22 +2394,22 @@
     </row>
     <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>115</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>23</v>
@@ -2420,22 +2423,22 @@
     </row>
     <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>76</v>
+        <v>205</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>23</v>
@@ -2449,22 +2452,22 @@
     </row>
     <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="19" t="s">
         <v>125</v>
       </c>
-      <c r="B36" s="19" t="s">
-        <v>135</v>
-      </c>
       <c r="C36" s="18" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>23</v>
@@ -2478,22 +2481,22 @@
     </row>
     <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>76</v>
+        <v>206</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>23</v>
@@ -2507,22 +2510,22 @@
     </row>
     <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>123</v>
+        <v>206</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>23</v>
@@ -2536,51 +2539,51 @@
     </row>
     <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B39" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>129</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F39" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H39" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>120</v>
+      </c>
+      <c r="B40" s="19" t="s">
         <v>142</v>
       </c>
-      <c r="C39" s="18" t="s">
+      <c r="C40" s="18" t="s">
         <v>127</v>
       </c>
-      <c r="D39" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>126</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>129</v>
-      </c>
       <c r="D40" s="18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>76</v>
+        <v>207</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>23</v>
@@ -2594,22 +2597,22 @@
     </row>
     <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D41" s="18" t="s">
         <v>139</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>23</v>
@@ -2621,24 +2624,24 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="23" t="s">
-        <v>130</v>
+    <row r="42" spans="1:10" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>133</v>
       </c>
       <c r="B42" s="19" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D42" s="18" t="s">
         <v>140</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>76</v>
+        <v>113</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>23</v>
@@ -2652,22 +2655,22 @@
     </row>
     <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>183</v>
+        <v>171</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>123</v>
+        <v>208</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>23</v>
@@ -2681,22 +2684,22 @@
     </row>
     <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>123</v>
+        <v>210</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>23</v>
@@ -2710,22 +2713,22 @@
     </row>
     <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>185</v>
+        <v>173</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>146</v>
+        <v>209</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>83</v>
+        <v>158</v>
       </c>
       <c r="F45" s="18" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>23</v>
@@ -2739,22 +2742,22 @@
     </row>
     <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>186</v>
+        <v>174</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F46" s="18" t="s">
-        <v>76</v>
+        <v>160</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>23</v>
@@ -2768,22 +2771,22 @@
     </row>
     <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>187</v>
+        <v>175</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>162</v>
+        <v>213</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F47" s="18" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>23</v>
@@ -2797,22 +2800,22 @@
     </row>
     <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>188</v>
+        <v>176</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>163</v>
+        <v>212</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>172</v>
+        <v>211</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>23</v>
@@ -2826,138 +2829,138 @@
     </row>
     <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>27</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>189</v>
+        <v>177</v>
       </c>
       <c r="C49" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>158</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="H49" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>165</v>
+      </c>
+      <c r="B50" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="H50" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>165</v>
+      </c>
+      <c r="B51" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="H51" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>165</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D49" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>168</v>
       </c>
-      <c r="E49" s="18" t="s">
+      <c r="H52" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C53" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="F49" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>147</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="C50" s="18" t="s">
+      <c r="D53" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>167</v>
       </c>
-      <c r="D50" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F50" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H50" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>27</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>177</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>177</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>45</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>175</v>
-      </c>
       <c r="F53" s="18" t="s">
-        <v>76</v>
+        <v>215</v>
       </c>
       <c r="H53" s="20" t="s">
         <v>23</v>
@@ -2971,109 +2974,109 @@
     </row>
     <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>165</v>
+        <v>193</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="H54" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="H54" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>177</v>
+        <v>191</v>
       </c>
       <c r="B55" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="H55" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B56" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>196</v>
+      </c>
+      <c r="D56" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="E56" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="F56" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H56" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B57" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="D57" s="18" t="s">
+        <v>194</v>
+      </c>
+      <c r="E57" s="18" t="s">
         <v>195</v>
       </c>
-      <c r="C55" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H55" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>204</v>
-      </c>
-      <c r="B56" t="s">
-        <v>196</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="E56" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="F56" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>205</v>
-      </c>
-      <c r="B57" t="s">
-        <v>199</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="D57" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E57" s="18" t="s">
-        <v>201</v>
-      </c>
       <c r="F57" s="18" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>
@@ -3082,64 +3085,6 @@
         <v>24</v>
       </c>
       <c r="J57" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B58" t="s">
-        <v>202</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D58" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="E58" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="F58" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H58" t="s">
-        <v>23</v>
-      </c>
-      <c r="I58" t="s">
-        <v>24</v>
-      </c>
-      <c r="J58" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="23" t="s">
-        <v>177</v>
-      </c>
-      <c r="B59" t="s">
-        <v>203</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="D59" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="E59" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="F59" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="H59" t="s">
-        <v>23</v>
-      </c>
-      <c r="I59" t="s">
-        <v>24</v>
-      </c>
-      <c r="J59" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="220">
   <si>
     <t>Project Name:</t>
   </si>
@@ -211,18 +211,12 @@
     <t>BANK_SYS_TC_Reg_R007</t>
   </si>
   <si>
-    <t>validate that Username field must contain numbers .</t>
-  </si>
-  <si>
     <t>1-user name : KhadijaMostafa
 2- passsword : deja&amp;123&amp;
 3- confirm password : deja&amp;123&amp;
 4- national ID : 12345678912345
 5- email : khadija.mostafa@gmail.com
 6- phone :01284751820</t>
-  </si>
-  <si>
-    <t>validate that Username field must contain characters  .</t>
   </si>
   <si>
     <t>1-user name : 123456789
@@ -1043,6 +1037,16 @@
   </si>
   <si>
     <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context"  invalid format of data." with ok button and close icon. </t>
+  </si>
+  <si>
+    <t>validate that Username field must contain characters not numbers only  .</t>
+  </si>
+  <si>
+    <t>validate that Username field can accept characters only.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">customer shall be redirected to verification code page successfully .
+</t>
   </si>
 </sst>
 </file>
@@ -1558,8 +1562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1783,7 +1787,7 @@
         <v>22</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H12" s="20" t="s">
         <v>23</v>
@@ -1803,16 +1807,16 @@
         <v>45</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H13" s="20" t="s">
         <v>23</v>
@@ -1832,10 +1836,10 @@
         <v>46</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>22</v>
@@ -1861,16 +1865,16 @@
         <v>49</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H15" s="20" t="s">
         <v>23</v>
@@ -1884,22 +1888,22 @@
     </row>
     <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B16" s="19" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="H16" s="20" t="s">
         <v>23</v>
@@ -1909,16 +1913,16 @@
     </row>
     <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" s="19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C17" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="D17" s="18" t="s">
         <v>147</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>149</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>22</v>
@@ -1934,16 +1938,16 @@
     </row>
     <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="18" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B18" s="19" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>22</v>
@@ -1962,19 +1966,19 @@
         <v>48</v>
       </c>
       <c r="B19" s="19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>52</v>
+        <v>217</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H19" s="20" t="s">
         <v>23</v>
@@ -1991,19 +1995,19 @@
         <v>48</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C20" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="D20" s="18" t="s">
         <v>50</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>51</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>200</v>
+        <v>219</v>
       </c>
       <c r="H20" s="20" t="s">
         <v>23</v>
@@ -2020,19 +2024,19 @@
         <v>47</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F21" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H21" s="20" t="s">
         <v>23</v>
@@ -2049,19 +2053,19 @@
         <v>47</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F22" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H22" s="20" t="s">
         <v>23</v>
@@ -2078,19 +2082,19 @@
         <v>47</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F23" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H23" s="20" t="s">
         <v>23</v>
@@ -2107,19 +2111,19 @@
         <v>47</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F24" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H24" s="20" t="s">
         <v>23</v>
@@ -2136,19 +2140,19 @@
         <v>47</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D25" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E25" s="18" t="s">
-        <v>73</v>
-      </c>
       <c r="F25" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H25" s="20" t="s">
         <v>23</v>
@@ -2165,19 +2169,19 @@
         <v>47</v>
       </c>
       <c r="B26" s="19" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F26" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H26" s="20" t="s">
         <v>23</v>
@@ -2191,22 +2195,22 @@
     </row>
     <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A27" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B27" s="19" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F27" s="18" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H27" s="20" t="s">
         <v>23</v>
@@ -2220,19 +2224,19 @@
     </row>
     <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B28" s="19" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>32</v>
@@ -2249,19 +2253,19 @@
     </row>
     <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>32</v>
@@ -2278,19 +2282,19 @@
     </row>
     <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B30" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="C30" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>94</v>
-      </c>
       <c r="E30" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>32</v>
@@ -2307,19 +2311,19 @@
     </row>
     <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>32</v>
@@ -2336,22 +2340,22 @@
     </row>
     <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B32" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F32" s="18" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="H32" s="20" t="s">
         <v>23</v>
@@ -2365,22 +2369,22 @@
     </row>
     <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F33" s="18" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="H33" s="20" t="s">
         <v>23</v>
@@ -2394,22 +2398,22 @@
     </row>
     <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B34" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F34" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H34" s="20" t="s">
         <v>23</v>
@@ -2423,22 +2427,22 @@
     </row>
     <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F35" s="18" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H35" s="20" t="s">
         <v>23</v>
@@ -2452,22 +2456,22 @@
     </row>
     <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F36" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H36" s="20" t="s">
         <v>23</v>
@@ -2481,22 +2485,22 @@
     </row>
     <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>114</v>
+      </c>
+      <c r="B37" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="19" t="s">
-        <v>126</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>118</v>
-      </c>
       <c r="E37" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F37" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H37" s="20" t="s">
         <v>23</v>
@@ -2510,22 +2514,22 @@
     </row>
     <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" s="19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C38" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D38" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D38" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="E38" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" s="18" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="H38" s="20" t="s">
         <v>23</v>
@@ -2539,22 +2543,22 @@
     </row>
     <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B39" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F39" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H39" s="20" t="s">
         <v>23</v>
@@ -2568,22 +2572,22 @@
     </row>
     <row r="40" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F40" s="18" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H40" s="20" t="s">
         <v>23</v>
@@ -2597,22 +2601,22 @@
     </row>
     <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B41" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D41" s="18" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E41" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F41" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H41" s="20" t="s">
         <v>23</v>
@@ -2626,22 +2630,22 @@
     </row>
     <row r="42" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
+        <v>131</v>
+      </c>
+      <c r="B42" s="19" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="18" t="s">
         <v>133</v>
       </c>
-      <c r="B42" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>135</v>
-      </c>
       <c r="D42" s="18" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F42" s="18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H42" s="20" t="s">
         <v>23</v>
@@ -2655,22 +2659,22 @@
     </row>
     <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B43" s="19" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F43" s="18" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H43" s="20" t="s">
         <v>23</v>
@@ -2684,22 +2688,22 @@
     </row>
     <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B44" s="19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C44" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="D44" s="18" t="s">
-        <v>153</v>
-      </c>
       <c r="E44" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F44" s="18" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H44" s="20" t="s">
         <v>23</v>
@@ -2713,22 +2717,22 @@
     </row>
     <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B45" s="19" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E45" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F45" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="F45" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="H45" s="20" t="s">
         <v>23</v>
@@ -2742,22 +2746,22 @@
     </row>
     <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B46" s="19" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="E46" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F46" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="H46" s="20" t="s">
         <v>23</v>
@@ -2771,22 +2775,22 @@
     </row>
     <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B47" s="19" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D47" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E47" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E47" s="18" t="s">
-        <v>158</v>
-      </c>
       <c r="F47" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H47" s="20" t="s">
         <v>23</v>
@@ -2800,22 +2804,22 @@
     </row>
     <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B48" s="19" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F48" s="18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="H48" s="20" t="s">
         <v>23</v>
@@ -2832,19 +2836,19 @@
         <v>27</v>
       </c>
       <c r="B49" s="19" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E49" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="F49" s="18" t="s">
         <v>158</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>160</v>
       </c>
       <c r="H49" s="20" t="s">
         <v>23</v>
@@ -2858,22 +2862,22 @@
     </row>
     <row r="50" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B50" s="19" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D50" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F50" s="18" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H50" s="20" t="s">
         <v>23</v>
@@ -2887,22 +2891,22 @@
     </row>
     <row r="51" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B51" s="19" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D51" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F51" s="18" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H51" s="20" t="s">
         <v>23</v>
@@ -2916,22 +2920,22 @@
     </row>
     <row r="52" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
+        <v>163</v>
+      </c>
+      <c r="B52" s="19" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E52" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B52" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C52" s="18" t="s">
+      <c r="F52" s="18" t="s">
         <v>166</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>168</v>
       </c>
       <c r="H52" s="20" t="s">
         <v>23</v>
@@ -2945,22 +2949,22 @@
     </row>
     <row r="53" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
+        <v>163</v>
+      </c>
+      <c r="B53" s="19" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>168</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="E53" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="B53" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>167</v>
-      </c>
       <c r="F53" s="18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="H53" s="20" t="s">
         <v>23</v>
@@ -2974,22 +2978,22 @@
     </row>
     <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B54" s="19" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F54" s="18" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H54" t="s">
         <v>23</v>
@@ -3003,22 +3007,22 @@
     </row>
     <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B55" s="19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F55" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H55" t="s">
         <v>23</v>
@@ -3032,22 +3036,22 @@
     </row>
     <row r="56" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B56" s="19" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H56" t="s">
         <v>23</v>
@@ -3061,22 +3065,22 @@
     </row>
     <row r="57" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="23" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B57" s="19" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H57" t="s">
         <v>23</v>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iti\project managment\for srs and siq and registeration update\Internet-Banking-System\Testing\Test Cases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Documents\GitHub\Internet-Banking-System\Testing\Test Cases\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="237">
   <si>
     <t>Project Name:</t>
   </si>
@@ -134,9 +134,6 @@
   </si>
   <si>
     <t>customer shall be redirected to verification code page successfully .</t>
-  </si>
-  <si>
-    <t>customer shall be redirected tologin page successfully .</t>
   </si>
   <si>
     <t>BANK_SYS_SRS_Reg_R028</t>
@@ -867,10 +864,6 @@
     <t>BANK_SYS_TC_Reg_R048</t>
   </si>
   <si>
-    <t>Validate that all fields are required expect staff id 
-in case of customer registeration.</t>
-  </si>
-  <si>
     <t xml:space="preserve">1- leave username textfield empty .
 2- enter password in the textfield password .
 3- enter confirm password in the textfield confirm password .
@@ -1047,6 +1040,84 @@
   <si>
     <t xml:space="preserve">customer shall be redirected to verification code page successfully .
 </t>
+  </si>
+  <si>
+    <t>sondos mahmoud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">description not related to the SRS ID </t>
+  </si>
+  <si>
+    <t>customer shall be redirected to login page successfully .</t>
+  </si>
+  <si>
+    <t>log in is hyper link not button as 
+you mentioned in the steps</t>
+  </si>
+  <si>
+    <t>missing step which will you return
+ to the login page to ensure that
+ fields are empty</t>
+  </si>
+  <si>
+    <t>not related to 
+BANK_SYS_SRS_Reg_R024</t>
+  </si>
+  <si>
+    <t>related to 
+BANK_SYS_SRS_Reg_R024</t>
+  </si>
+  <si>
+    <t>in the description passworrd 
+shall not accept 13 digit according to 
+the SRS</t>
+  </si>
+  <si>
+    <t>related to 
+BANK_SYS_SRS_Reg_R024.
+missing happy scenario</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+duplicated
+the same is the previous one.
+missing handling when user let 
+the staf id empty</t>
+  </si>
+  <si>
+    <t>missing step pressing confirmation button in the verification code page</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+related to 
+BANK_SYS_SRS_Reg_R024.</t>
+  </si>
+  <si>
+    <t>missing step pressing confirmation 
+button in the verification code page.</t>
+  </si>
+  <si>
+    <t>duplicated with 
+BANK_SYS_TC_Reg_R043</t>
+  </si>
+  <si>
+    <t>Validate that all fields are required except staff id 
+in case of customer registeration.</t>
+  </si>
+  <si>
+    <t>not related to 
+BANK_SYS_SRS_Reg_R032.
+the description and expected result not related</t>
+  </si>
+  <si>
+    <t>remove step 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error message not suitable </t>
+  </si>
+  <si>
+    <t>error message not suitable .
+Remove step 10</t>
   </si>
 </sst>
 </file>
@@ -1213,7 +1284,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1221,15 +1292,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1238,9 +1301,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1259,25 +1319,60 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1562,284 +1657,335 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="D56" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="30.5703125" customWidth="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1"/>
-    <col min="3" max="3" width="48" customWidth="1"/>
-    <col min="4" max="4" width="34.85546875" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
-    <col min="6" max="6" width="39.5703125" customWidth="1"/>
-    <col min="7" max="7" width="26.7109375" customWidth="1"/>
-    <col min="8" max="8" width="27.85546875" customWidth="1"/>
-    <col min="9" max="9" width="28.85546875" customWidth="1"/>
-    <col min="10" max="10" width="24.140625" customWidth="1"/>
-    <col min="11" max="11" width="14.5703125" customWidth="1"/>
-    <col min="12" max="12" width="24" customWidth="1"/>
+    <col min="1" max="1" width="30.5703125" style="13" customWidth="1"/>
+    <col min="2" max="2" width="35.7109375" style="13" customWidth="1"/>
+    <col min="3" max="3" width="48" style="17" customWidth="1"/>
+    <col min="4" max="4" width="34.85546875" style="17" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" style="17" customWidth="1"/>
+    <col min="6" max="6" width="39.5703125" style="17" customWidth="1"/>
+    <col min="7" max="7" width="26.7109375" style="13" customWidth="1"/>
+    <col min="8" max="8" width="27.85546875" style="13" customWidth="1"/>
+    <col min="9" max="9" width="28.85546875" style="13" customWidth="1"/>
+    <col min="10" max="10" width="24.140625" style="13" customWidth="1"/>
+    <col min="11" max="11" width="20" style="13" customWidth="1"/>
+    <col min="12" max="12" width="34.5703125" style="17" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25"/>
+    <row r="1" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="L1" s="25"/>
+    </row>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="26" t="s">
         <v>19</v>
       </c>
+      <c r="F2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="26" t="s">
         <v>20</v>
       </c>
+      <c r="F3" s="25"/>
+      <c r="L3" s="25"/>
     </row>
     <row r="4" spans="1:12" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
-      <c r="B4" s="5"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="7"/>
-    </row>
-    <row r="5" spans="1:12" s="8" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="B5" s="24"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="25"/>
-      <c r="K5" s="25"/>
-      <c r="L5" s="9"/>
-    </row>
-    <row r="6" spans="1:12" s="14" customFormat="1" ht="60" x14ac:dyDescent="0.2">
-      <c r="A6" s="10" t="s">
+      <c r="B4" s="3"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="25"/>
+      <c r="L4" s="25"/>
+    </row>
+    <row r="5" spans="1:12" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="19"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="5"/>
+    </row>
+    <row r="6" spans="1:12" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="12"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13"/>
-    </row>
-    <row r="7" spans="1:12" s="15" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="8" spans="1:12" s="16" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="17" t="s">
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="8"/>
+    </row>
+    <row r="7" spans="1:12" s="10" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="L7" s="30"/>
+    </row>
+    <row r="8" spans="1:12" s="11" customFormat="1" ht="18.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="16" t="s">
+      <c r="D8" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="16" t="s">
+      <c r="F8" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="G8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="H8" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I8" s="16" t="s">
+      <c r="I8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="J8" s="16" t="s">
+      <c r="J8" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="K8" s="16" t="s">
+      <c r="K8" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="L8" s="16" t="s">
+      <c r="L8" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:12" s="20" customFormat="1" ht="150" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:12" s="14" customFormat="1" ht="150" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="21" t="s">
+      <c r="D9" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="F9" s="21" t="s">
+      <c r="F9" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="20" t="s">
-        <v>25</v>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K9" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L9" s="17" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" s="19" t="s">
+      <c r="A10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C10" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="F10" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="20" t="s">
-        <v>25</v>
+      <c r="F10" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K10" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L10" s="18" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="120" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="A11" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="C11" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="18" t="s">
+      <c r="D11" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="18" t="s">
+      <c r="F11" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K11" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L11" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="18" t="s">
         <v>42</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" t="s">
-        <v>39</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A12" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="18" t="s">
-        <v>43</v>
       </c>
       <c r="E12" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F12" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="H12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="20" t="s">
-        <v>25</v>
+        <v>194</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L12" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A13" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>45</v>
+      <c r="A13" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>44</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E13" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F13" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="H13" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="E14" s="18" t="s">
         <v>22</v>
@@ -1847,82 +1993,95 @@
       <c r="F14" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H14" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I14" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="20" t="s">
-        <v>25</v>
+      <c r="H14" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J14" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K14" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L14" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="19" t="s">
-        <v>49</v>
-      </c>
       <c r="C15" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D15" s="18" t="s">
         <v>60</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>61</v>
       </c>
       <c r="E15" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F15" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H15" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I15" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J15" s="20" t="s">
-        <v>25</v>
+        <v>195</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L15" s="18" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="16" spans="1:12" ht="150" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B16" s="19" t="s">
-        <v>52</v>
+      <c r="A16" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>51</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E16" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F16" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="H16" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A17" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>53</v>
+        <v>195</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>52</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E17" s="18" t="s">
         <v>22</v>
@@ -1930,24 +2089,25 @@
       <c r="F17" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A18" s="18" t="s">
-        <v>136</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>54</v>
+      <c r="H17" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E18" s="18" t="s">
         <v>22</v>
@@ -1955,1141 +2115,1326 @@
       <c r="F18" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A19" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="19" t="s">
-        <v>62</v>
+      <c r="H18" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F19" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="H19" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J19" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" ht="150" x14ac:dyDescent="0.25">
-      <c r="A20" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="B20" s="19" t="s">
-        <v>63</v>
+        <v>196</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="150" x14ac:dyDescent="0.25">
+      <c r="A20" s="22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E20" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F20" s="18" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I20" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A21" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="19" t="s">
+        <v>217</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A21" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L21" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A22" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C22" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="D21" s="18" t="s">
+      <c r="D22" s="18" t="s">
         <v>95</v>
       </c>
-      <c r="E21" s="18" t="s">
+      <c r="E22" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L22" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>96</v>
+      </c>
+      <c r="E23" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F23" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L23" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L24" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L25" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C26" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H21" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>82</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>96</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H22" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I22" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>83</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H23" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J23" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B24" s="19" t="s">
-        <v>84</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="18" t="s">
+      <c r="D26" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H24" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I24" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J24" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="D25" s="18" t="s">
+      <c r="E26" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="E25" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H25" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>47</v>
-      </c>
-      <c r="B26" s="19" t="s">
+      <c r="F26" s="18" t="s">
+        <v>197</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L26" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B27" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C27" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D27" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="E27" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F27" s="18" t="s">
+        <v>198</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A28" s="23" t="s">
+        <v>79</v>
+      </c>
+      <c r="B28" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D28" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="E26" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F26" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="H26" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I26" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="E27" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="H27" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J27" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="19" t="s">
-        <v>88</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>100</v>
-      </c>
       <c r="E28" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I28" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J28" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>80</v>
-      </c>
-      <c r="B29" s="19" t="s">
-        <v>89</v>
+      <c r="H28" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>88</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I29" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J29" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>80</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>90</v>
+      <c r="H29" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="13" t="s">
+        <v>89</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J30" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>80</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>91</v>
+      <c r="H30" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F31" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="H31" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I31" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="19" t="s">
+      <c r="H31" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="E32" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="18" t="s">
+        <v>199</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L32" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="E33" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C34" s="18" t="s">
         <v>105</v>
       </c>
-      <c r="C32" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="E32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F32" s="18" t="s">
+      <c r="D34" s="18" t="s">
+        <v>106</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F34" s="18" t="s">
         <v>201</v>
       </c>
-      <c r="H32" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I32" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J32" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>93</v>
-      </c>
-      <c r="D33" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="E33" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F33" s="18" t="s">
+      <c r="H34" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A35" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B35" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J35" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K35" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E36" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>114</v>
+      </c>
+      <c r="D37" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="E37" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" s="18" t="s">
         <v>202</v>
       </c>
-      <c r="H33" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I33" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J33" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
+      <c r="H37" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L37" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B34" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="D34" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F34" s="18" t="s">
+      <c r="B38" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>116</v>
+      </c>
+      <c r="D38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" s="18" t="s">
+        <v>202</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L38" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="18" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F39" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I34" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J34" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B35" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>109</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F35" s="18" t="s">
+      <c r="H39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L39" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>124</v>
+      </c>
+      <c r="D40" s="18" t="s">
+        <v>127</v>
+      </c>
+      <c r="E40" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F40" s="18" t="s">
         <v>203</v>
       </c>
-      <c r="H35" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I35" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J35" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>113</v>
-      </c>
-      <c r="B36" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="D36" s="18" t="s">
+      <c r="H40" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L40" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>140</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>131</v>
+      </c>
+      <c r="D41" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="E41" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F41" s="18" t="s">
         <v>110</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H36" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>114</v>
-      </c>
-      <c r="B37" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="D37" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="E37" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F37" s="18" t="s">
+      <c r="H41" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>132</v>
+      </c>
+      <c r="D42" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="F43" s="18" t="s">
         <v>204</v>
       </c>
-      <c r="H37" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I37" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="19" t="s">
-        <v>129</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D38" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="H38" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I38" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J38" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>118</v>
-      </c>
-      <c r="B39" s="19" t="s">
-        <v>130</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="D39" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F39" s="18" t="s">
+      <c r="H43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A44" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D44" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="E44" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F44" s="18" t="s">
+        <v>206</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A45" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B45" s="13" t="s">
+        <v>170</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>205</v>
       </c>
-      <c r="H39" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I39" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J39" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="23" t="s">
-        <v>118</v>
-      </c>
-      <c r="B40" s="19" t="s">
-        <v>140</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>125</v>
-      </c>
-      <c r="D40" s="18" t="s">
-        <v>128</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="H40" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>131</v>
-      </c>
-      <c r="B41" s="19" t="s">
-        <v>141</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F41" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H41" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J41" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>131</v>
-      </c>
-      <c r="B42" s="19" t="s">
-        <v>142</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>133</v>
-      </c>
-      <c r="D42" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="E42" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F42" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="H42" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I42" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J42" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>131</v>
-      </c>
-      <c r="B43" s="19" t="s">
-        <v>169</v>
-      </c>
-      <c r="C43" s="18" t="s">
+      <c r="D45" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E45" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F45" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="D43" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F43" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H43" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I43" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>135</v>
-      </c>
-      <c r="B44" s="19" t="s">
-        <v>170</v>
-      </c>
-      <c r="C44" s="18" t="s">
+      <c r="B46" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C46" s="18" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="18" t="s">
+      <c r="D46" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B47" s="13" t="s">
+        <v>172</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="D47" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K47" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L47" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="13" t="s">
+        <v>173</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>208</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="18" t="s">
+        <v>207</v>
+      </c>
+      <c r="H48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J48" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K48" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L48" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="165" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B49" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>151</v>
       </c>
-      <c r="E44" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F44" s="18" t="s">
-        <v>208</v>
-      </c>
-      <c r="H44" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I44" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J44" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>135</v>
-      </c>
-      <c r="B45" s="19" t="s">
-        <v>171</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>207</v>
-      </c>
-      <c r="D45" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E45" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F45" s="18" t="s">
+      <c r="E49" s="18" t="s">
+        <v>155</v>
+      </c>
+      <c r="F49" s="18" t="s">
+        <v>157</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L49" s="18"/>
+    </row>
+    <row r="50" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B50" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" s="18" t="s">
         <v>158</v>
       </c>
-      <c r="H45" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I45" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J45" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>135</v>
-      </c>
-      <c r="B46" s="19" t="s">
-        <v>172</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="D46" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H46" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I46" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J46" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>135</v>
-      </c>
-      <c r="B47" s="19" t="s">
-        <v>173</v>
-      </c>
-      <c r="C47" s="18" t="s">
+      <c r="D50" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F50" s="18" t="s">
+        <v>161</v>
+      </c>
+      <c r="H50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I50" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J50" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K50" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L50" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="D51" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E51" s="18" t="s">
+        <v>160</v>
+      </c>
+      <c r="F51" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L51" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>177</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F52" s="18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L52" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>178</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>167</v>
+      </c>
+      <c r="D53" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="F53" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="D47" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="H47" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I47" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J47" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>135</v>
-      </c>
-      <c r="B48" s="19" t="s">
-        <v>174</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>210</v>
-      </c>
-      <c r="D48" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="E48" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F48" s="18" t="s">
-        <v>209</v>
-      </c>
-      <c r="H48" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I48" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J48" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" ht="165" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>27</v>
-      </c>
-      <c r="B49" s="19" t="s">
-        <v>175</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F49" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H49" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I49" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J49" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>163</v>
-      </c>
-      <c r="B50" s="19" t="s">
-        <v>176</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F50" s="18" t="s">
+      <c r="H53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L53" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="D54" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="18" t="s">
+        <v>182</v>
+      </c>
+      <c r="F54" s="18" t="s">
+        <v>212</v>
+      </c>
+      <c r="H54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L54" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="180" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>187</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="D55" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="E55" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="F55" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="H55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J55" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K55" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L55" s="17" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="H50" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I50" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J50" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>163</v>
-      </c>
-      <c r="B51" s="19" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D51" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="F51" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="H51" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I51" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J51" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>163</v>
-      </c>
-      <c r="B52" s="19" t="s">
-        <v>178</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D52" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="E52" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F52" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="H52" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I52" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J52" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>163</v>
-      </c>
-      <c r="B53" s="19" t="s">
-        <v>179</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="D53" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="E53" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="H53" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="I53" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="J53" s="20" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>188</v>
-      </c>
-      <c r="B54" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="D54" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E54" s="18" t="s">
+      <c r="B56" s="13" t="s">
+        <v>181</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="D56" s="18" t="s">
         <v>184</v>
-      </c>
-      <c r="F54" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="H54" t="s">
-        <v>23</v>
-      </c>
-      <c r="I54" t="s">
-        <v>24</v>
-      </c>
-      <c r="J54" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" ht="180" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>189</v>
-      </c>
-      <c r="B55" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D55" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="E55" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="H55" t="s">
-        <v>23</v>
-      </c>
-      <c r="I55" t="s">
-        <v>24</v>
-      </c>
-      <c r="J55" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B56" s="19" t="s">
-        <v>182</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D56" s="18" t="s">
-        <v>186</v>
       </c>
       <c r="E56" s="18" t="s">
         <v>22</v>
       </c>
       <c r="F56" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H56" t="s">
-        <v>23</v>
-      </c>
-      <c r="I56" t="s">
-        <v>24</v>
-      </c>
-      <c r="J56" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="B57" s="19" t="s">
-        <v>185</v>
+        <v>214</v>
+      </c>
+      <c r="H56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L56" s="17" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>183</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F57" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="H57" t="s">
-        <v>23</v>
-      </c>
-      <c r="I57" t="s">
-        <v>24</v>
-      </c>
-      <c r="J57" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="H57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I57" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="J57" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="K57" s="13" t="s">
+        <v>218</v>
+      </c>
+      <c r="L57" s="18" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Testing/Test Cases/Registeration TC.xlsx
+++ b/Testing/Test Cases/Registeration TC.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="264">
   <si>
     <t>Project Name:</t>
   </si>
@@ -266,10 +266,6 @@
   </si>
   <si>
     <t>BANK_SYS_TC_Reg_R012</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" You have entered an invalid format of data, 
-Please try again." with ok button and close icon. </t>
   </si>
   <si>
     <t>validate that Password shallnot accept  characters only .</t>
@@ -962,9 +958,6 @@
   <si>
     <t>error messgae in the form of pop up shall be displayed with context"this field is mandatory." beyound the staff id  field 
 in red color.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context"  invalid format of data." with ok button and close icon. </t>
   </si>
   <si>
     <t>validate that Username field must contain characters not numbers only  .</t>
@@ -1143,10 +1136,6 @@
 11- click on confirm button.</t>
   </si>
   <si>
-    <t>BANK_SYS_SRS_Reg_R019
-BANK_SYS_SRS_Reg_R024</t>
-  </si>
-  <si>
     <t xml:space="preserve">BANK_SYS_SRS_Reg_R019
 </t>
   </si>
@@ -1265,7 +1254,38 @@
 2- confirm button </t>
   </si>
   <si>
-    <t>s</t>
+    <t>BANK_SYS_TC_Reg_R052</t>
+  </si>
+  <si>
+    <t xml:space="preserve">validate that mail TF doesn't accept invalid mail </t>
+  </si>
+  <si>
+    <t>1-user name : khadijaMostafa 
+2- passsword : deja&amp;123&amp;
+3- confirm password : deja&amp;123&amp;
+4- national ID : 12345678912345
+5- email : khadija.mostafa
+6- phone :01284751820</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be 
+displayed with context" invalid format of data. " 
+ beyound the staff id   field in red color. </t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R019
+BANK_SYS_SRS_Reg_R025</t>
+  </si>
+  <si>
+    <t>BANK_SYS_SRS_Reg_R019
+BANK_SYS_SRS_Reg_R024
+BANK_SYS_SRS_Reg_R026</t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context" already registered ." with ok button and close icon. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">error messgae in the form of pop up shall be displayed with context"  ialready registered." with ok button and close icon. </t>
   </si>
 </sst>
 </file>
@@ -1531,12 +1551,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1548,6 +1562,12 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,8 +1851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
-      <selection activeCell="F60" sqref="F60"/>
+    <sheetView tabSelected="1" topLeftCell="C56" zoomScale="78" zoomScaleNormal="78" workbookViewId="0">
+      <selection activeCell="F57" sqref="F57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1900,17 +1920,17 @@
     </row>
     <row r="5" spans="1:13" s="4" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="17"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="31"/>
-      <c r="I5" s="31"/>
-      <c r="J5" s="31"/>
-      <c r="K5" s="31"/>
-      <c r="L5" s="31"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="35"/>
+      <c r="J5" s="35"/>
+      <c r="K5" s="35"/>
+      <c r="L5" s="35"/>
       <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" s="9" customFormat="1" ht="60" x14ac:dyDescent="0.2">
@@ -1971,7 +1991,7 @@
         <v>14</v>
       </c>
       <c r="K8" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="L8" s="11" t="s">
         <v>15</v>
@@ -1988,7 +2008,7 @@
         <v>25</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D9" s="16" t="s">
         <v>38</v>
@@ -2010,13 +2030,13 @@
         <v>24</v>
       </c>
       <c r="K9" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M9" s="15" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
@@ -2030,10 +2050,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F10" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="H10" s="13" t="s">
         <v>22</v>
@@ -2045,13 +2065,13 @@
         <v>24</v>
       </c>
       <c r="K10" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L10" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M10" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="120" x14ac:dyDescent="0.25">
@@ -2083,13 +2103,13 @@
         <v>24</v>
       </c>
       <c r="K11" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L11" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M11" s="32" t="s">
-        <v>210</v>
+        <v>204</v>
+      </c>
+      <c r="M11" s="30" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -2109,7 +2129,7 @@
         <v>21</v>
       </c>
       <c r="F12" s="16" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="H12" s="13" t="s">
         <v>22</v>
@@ -2121,18 +2141,18 @@
         <v>24</v>
       </c>
       <c r="K12" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M12" s="32" t="s">
-        <v>211</v>
+        <v>204</v>
+      </c>
+      <c r="M12" s="30" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>42</v>
@@ -2159,18 +2179,18 @@
         <v>24</v>
       </c>
       <c r="K13" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L13" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M13" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>43</v>
@@ -2197,18 +2217,18 @@
         <v>24</v>
       </c>
       <c r="K14" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L14" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M14" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>45</v>
@@ -2223,7 +2243,7 @@
         <v>21</v>
       </c>
       <c r="F15" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H15" s="13" t="s">
         <v>22</v>
@@ -2235,56 +2255,56 @@
         <v>24</v>
       </c>
       <c r="K15" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L15" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M15" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>48</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D16" s="16" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F16" s="16" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="H16" s="13" t="s">
         <v>22</v>
       </c>
       <c r="K16" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L16" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>49</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D17" s="16" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E17" s="16" t="s">
         <v>21</v>
@@ -2296,24 +2316,24 @@
         <v>22</v>
       </c>
       <c r="K17" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L17" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="150" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>50</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D18" s="16" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E18" s="16" t="s">
         <v>21</v>
@@ -2325,10 +2345,10 @@
         <v>22</v>
       </c>
       <c r="K18" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L18" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -2339,7 +2359,7 @@
         <v>58</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D19" s="16" t="s">
         <v>47</v>
@@ -2348,7 +2368,7 @@
         <v>21</v>
       </c>
       <c r="F19" s="16" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H19" s="13" t="s">
         <v>22</v>
@@ -2360,10 +2380,10 @@
         <v>24</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L19" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="150" x14ac:dyDescent="0.25">
@@ -2374,7 +2394,7 @@
         <v>59</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D20" s="16" t="s">
         <v>46</v>
@@ -2383,7 +2403,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H20" s="13" t="s">
         <v>22</v>
@@ -2395,30 +2415,30 @@
         <v>24</v>
       </c>
       <c r="K20" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L20" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F21" s="16" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="H21" s="13" t="s">
         <v>22</v>
@@ -2430,224 +2450,224 @@
         <v>24</v>
       </c>
       <c r="K21" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L21" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M21" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B22" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M22" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A23" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B23" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C23" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D23" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E23" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A24" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M24" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A25" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M25" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A26" s="31" t="s">
+        <v>227</v>
+      </c>
+      <c r="B26" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="C26" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="F22" s="16" t="s">
+      <c r="D26" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="E26" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J26" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K26" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L26" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M26" s="16" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
+      <c r="A27" s="31" t="s">
+        <v>228</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F27" s="16" t="s">
         <v>186</v>
       </c>
-      <c r="H22" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K22" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L22" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M22" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F23" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J23" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L23" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M23" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="D24" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F24" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H24" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I24" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J24" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K24" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L24" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M24" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A25" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C25" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="D25" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F25" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I25" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L25" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M25" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A26" s="33" t="s">
-        <v>229</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C26" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="D26" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="E26" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="16" t="s">
-        <v>186</v>
-      </c>
-      <c r="H26" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I26" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K26" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L26" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M26" s="16" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" ht="165" x14ac:dyDescent="0.25">
-      <c r="A27" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="C27" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="E27" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F27" s="16" t="s">
-        <v>187</v>
-      </c>
       <c r="H27" s="13" t="s">
         <v>22</v>
       </c>
@@ -2658,27 +2678,27 @@
         <v>24</v>
       </c>
       <c r="K27" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L27" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A28" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F28" s="16" t="s">
         <v>30</v>
@@ -2693,27 +2713,27 @@
         <v>24</v>
       </c>
       <c r="K28" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L28" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F29" s="16" t="s">
         <v>30</v>
@@ -2728,27 +2748,27 @@
         <v>24</v>
       </c>
       <c r="K29" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L29" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F30" s="16" t="s">
         <v>30</v>
@@ -2763,27 +2783,27 @@
         <v>24</v>
       </c>
       <c r="K30" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L30" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D31" s="16" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F31" s="16" t="s">
         <v>30</v>
@@ -2798,30 +2818,30 @@
         <v>24</v>
       </c>
       <c r="K31" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A32" s="20" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D32" s="16" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F32" s="16" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="H32" s="13" t="s">
         <v>22</v>
@@ -2833,33 +2853,33 @@
         <v>24</v>
       </c>
       <c r="K32" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L32" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M32" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A33" s="20" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C33" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="D33" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="D33" s="16" t="s">
-        <v>89</v>
-      </c>
       <c r="E33" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F33" s="16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="H33" s="13" t="s">
         <v>22</v>
@@ -2871,33 +2891,33 @@
         <v>24</v>
       </c>
       <c r="K33" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L33" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M33" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A34" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="D34" s="16" t="s">
-        <v>101</v>
-      </c>
       <c r="E34" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F34" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H34" s="13" t="s">
         <v>22</v>
@@ -2909,30 +2929,30 @@
         <v>24</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L34" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A35" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B35" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C35" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="D35" s="16" t="s">
-        <v>103</v>
-      </c>
       <c r="E35" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F35" s="16" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="H35" s="13" t="s">
         <v>22</v>
@@ -2944,31 +2964,31 @@
         <v>24</v>
       </c>
       <c r="K35" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L35" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A36" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D36" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="E36" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="F36" s="16" t="s">
-        <v>105</v>
-      </c>
       <c r="H36" s="13" t="s">
         <v>22</v>
       </c>
@@ -2979,30 +2999,30 @@
         <v>24</v>
       </c>
       <c r="K36" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L36" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A37" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C37" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="16" t="s">
         <v>108</v>
       </c>
-      <c r="D37" s="16" t="s">
-        <v>109</v>
-      </c>
       <c r="E37" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F37" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H37" s="13" t="s">
         <v>22</v>
@@ -3014,33 +3034,33 @@
         <v>24</v>
       </c>
       <c r="K37" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L37" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M37" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A38" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B38" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C38" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="D38" s="16" t="s">
         <v>110</v>
       </c>
-      <c r="D38" s="16" t="s">
-        <v>111</v>
-      </c>
       <c r="E38" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F38" s="16" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="H38" s="13" t="s">
         <v>22</v>
@@ -3052,33 +3072,33 @@
         <v>24</v>
       </c>
       <c r="K38" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L38" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M38" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A39" s="20" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B39" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D39" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="D39" s="16" t="s">
-        <v>119</v>
-      </c>
       <c r="E39" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H39" s="13" t="s">
         <v>22</v>
@@ -3090,33 +3110,33 @@
         <v>24</v>
       </c>
       <c r="K39" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M39" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B40" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D40" s="16" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="H40" s="13" t="s">
         <v>22</v>
@@ -3128,33 +3148,33 @@
         <v>24</v>
       </c>
       <c r="K40" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M40" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A41" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C41" s="16" t="s">
         <v>123</v>
       </c>
-      <c r="B41" s="13" t="s">
-        <v>133</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>124</v>
-      </c>
       <c r="D41" s="16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H41" s="13" t="s">
         <v>22</v>
@@ -3166,30 +3186,30 @@
         <v>24</v>
       </c>
       <c r="K41" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A42" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B42" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D42" s="16" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="16" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H42" s="13" t="s">
         <v>22</v>
@@ -3201,30 +3221,30 @@
         <v>24</v>
       </c>
       <c r="K42" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L42" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A43" s="20" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D43" s="16" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F43" s="16" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="H43" s="13" t="s">
         <v>22</v>
@@ -3236,30 +3256,30 @@
         <v>24</v>
       </c>
       <c r="K43" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L43" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A44" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B44" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D44" s="16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F44" s="16" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="H44" s="13" t="s">
         <v>22</v>
@@ -3271,30 +3291,30 @@
         <v>24</v>
       </c>
       <c r="K44" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L44" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A45" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D45" s="16" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F45" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H45" s="13" t="s">
         <v>22</v>
@@ -3306,30 +3326,30 @@
         <v>24</v>
       </c>
       <c r="K45" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L45" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A46" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B46" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D46" s="16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F46" s="16" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H46" s="13" t="s">
         <v>22</v>
@@ -3341,30 +3361,30 @@
         <v>24</v>
       </c>
       <c r="K46" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L46" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A47" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B47" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D47" s="16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F47" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H47" s="13" t="s">
         <v>22</v>
@@ -3376,33 +3396,33 @@
         <v>24</v>
       </c>
       <c r="K47" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L47" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M47" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A48" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D48" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="E48" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="E48" s="16" t="s">
-        <v>148</v>
-      </c>
       <c r="F48" s="16" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H48" s="13" t="s">
         <v>22</v>
@@ -3414,13 +3434,13 @@
         <v>24</v>
       </c>
       <c r="K48" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L48" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M48" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="165" x14ac:dyDescent="0.25">
@@ -3428,55 +3448,55 @@
         <v>26</v>
       </c>
       <c r="B49" s="13" t="s">
+        <v>165</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>147</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I49" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J49" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K49" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="L49" s="13" t="s">
+        <v>204</v>
+      </c>
+      <c r="M49" s="16"/>
+    </row>
+    <row r="50" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="B50" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C49" s="16" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E49" s="16" t="s">
-        <v>148</v>
-      </c>
-      <c r="F49" s="16" t="s">
+      <c r="C50" s="16" t="s">
         <v>150</v>
-      </c>
-      <c r="H49" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I49" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J49" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K49" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="L49" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M49" s="16"/>
-    </row>
-    <row r="50" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="B50" s="13" t="s">
-        <v>167</v>
-      </c>
-      <c r="C50" s="16" t="s">
-        <v>151</v>
       </c>
       <c r="D50" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F50" s="16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H50" s="13" t="s">
         <v>22</v>
@@ -3488,33 +3508,33 @@
         <v>24</v>
       </c>
       <c r="K50" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M50" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="177" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="20" t="s">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="B51" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D51" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F51" s="16" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H51" s="13" t="s">
         <v>22</v>
@@ -3526,34 +3546,34 @@
         <v>24</v>
       </c>
       <c r="K51" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L51" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M51" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A52" s="20" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C52" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>143</v>
+      </c>
+      <c r="E52" s="16" t="s">
         <v>155</v>
       </c>
-      <c r="D52" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="E52" s="16" t="s">
+      <c r="F52" s="16" t="s">
         <v>156</v>
       </c>
-      <c r="F52" s="16" t="s">
-        <v>157</v>
-      </c>
       <c r="H52" s="13" t="s">
         <v>22</v>
       </c>
@@ -3564,33 +3584,33 @@
         <v>24</v>
       </c>
       <c r="K52" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L52" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M52" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A53" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D53" s="16" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F53" s="16" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H53" s="13" t="s">
         <v>22</v>
@@ -3602,33 +3622,33 @@
         <v>24</v>
       </c>
       <c r="K53" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L53" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M53" s="16" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A54" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D54" s="16" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F54" s="16" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H54" s="13" t="s">
         <v>22</v>
@@ -3640,33 +3660,33 @@
         <v>24</v>
       </c>
       <c r="K54" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L54" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M54" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="180" x14ac:dyDescent="0.25">
       <c r="A55" s="13" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="13" t="s">
+        <v>171</v>
+      </c>
+      <c r="C55" s="16" t="s">
         <v>177</v>
       </c>
-      <c r="B55" s="13" t="s">
-        <v>172</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>178</v>
-      </c>
       <c r="D55" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F55" s="16" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="H55" s="13" t="s">
         <v>22</v>
@@ -3678,33 +3698,33 @@
         <v>24</v>
       </c>
       <c r="K55" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L55" s="13" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="M55" s="15" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B56" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D56" s="16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E56" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F56" s="16" t="s">
-        <v>202</v>
+        <v>263</v>
       </c>
       <c r="H56" s="13" t="s">
         <v>22</v>
@@ -3716,33 +3736,33 @@
         <v>24</v>
       </c>
       <c r="K56" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L56" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M56" s="34" t="s">
-        <v>221</v>
+        <v>204</v>
+      </c>
+      <c r="M56" s="32" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="165.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="22" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D57" s="16" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F57" s="16" t="s">
-        <v>60</v>
+        <v>262</v>
       </c>
       <c r="H57" s="13" t="s">
         <v>22</v>
@@ -3754,30 +3774,30 @@
         <v>24</v>
       </c>
       <c r="K57" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="L57" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="M57" s="35" t="s">
-        <v>222</v>
+        <v>204</v>
+      </c>
+      <c r="M57" s="33" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="165" x14ac:dyDescent="0.25">
       <c r="A58" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="F58" s="16" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="H58" s="13" t="s">
         <v>22</v>
@@ -3789,41 +3809,68 @@
         <v>24</v>
       </c>
       <c r="K58" s="13" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E59" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>255</v>
+      </c>
+      <c r="H59" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J59" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K59" s="13" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" ht="150" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B60" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="B59" s="13" t="s">
-        <v>254</v>
-      </c>
-      <c r="C59" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="E59" s="16" t="s">
+      <c r="C60" s="15" t="s">
         <v>257</v>
       </c>
-      <c r="F59" s="16" t="s">
+      <c r="D60" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="H59" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="I59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="J59" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="K59" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="F60" s="15" t="s">
+      <c r="E60" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="F60" s="16" t="s">
         <v>259</v>
+      </c>
+      <c r="H60" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="J60" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="K60" s="13" t="s">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
